--- a/network1_edge_input.xlsx
+++ b/network1_edge_input.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Edge</t>
   </si>
@@ -63,6 +64,24 @@
   </si>
   <si>
     <t>Edge 7</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>mdot</t>
+  </si>
+  <si>
+    <t>Vdot</t>
+  </si>
+  <si>
+    <t>v</t>
   </si>
 </sst>
 </file>
@@ -498,4 +517,95 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1">
+        <v>8.5699999999999998E-2</v>
+      </c>
+      <c r="C1">
+        <v>5.74E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2">
+        <f>3.1416*B1^2/4</f>
+        <v>5.7683624459999999E-3</v>
+      </c>
+      <c r="C2">
+        <f>3.1416*C1^2/4</f>
+        <v>2.5877045039999999E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <f>B2*125</f>
+        <v>0.72104530575000003</v>
+      </c>
+      <c r="C3">
+        <f>C2*125</f>
+        <v>0.323463063</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4">
+        <f>5.36</f>
+        <v>5.36</v>
+      </c>
+      <c r="C4">
+        <f>5.36</f>
+        <v>5.36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5">
+        <f>B4/1000</f>
+        <v>5.3600000000000002E-3</v>
+      </c>
+      <c r="C5">
+        <f>C4/1000</f>
+        <v>5.3600000000000002E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6">
+        <f>B5/B2</f>
+        <v>0.92920652094544198</v>
+      </c>
+      <c r="C6">
+        <f>C5/C2</f>
+        <v>2.0713338759176967</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>